--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T06:26:35+00:00</t>
+    <t>2025-09-08T07:31:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>Level</t>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>Specifies that the stroke etiology falls into a rarer category not covered by the main classifications, such as vasculitis or hypercoagulable states.</t>
+  </si>
+  <si>
+    <t>lacunar</t>
+  </si>
+  <si>
+    <t>Stroke Etiology Lacunar</t>
+  </si>
+  <si>
+    <t>Specifies that the stroke is attributed to small vessel disease, often manifesting as a lacunar infarct.</t>
   </si>
 </sst>
 </file>
@@ -469,7 +478,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -517,6 +526,20 @@
         <v>47</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T07:31:14+00:00</t>
+    <t>2025-09-08T10:17:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:17:51+00:00</t>
+    <t>2025-09-08T16:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T16:35:28+00:00</t>
+    <t>2025-09-09T08:15:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T08:15:52+00:00</t>
+    <t>2025-09-09T09:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T09:28:44+00:00</t>
+    <t>2025-09-12T08:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T08:57:32+00:00</t>
+    <t>2025-09-15T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T11:30:19+00:00</t>
+    <t>2025-09-15T14:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:05:10+00:00</t>
+    <t>2025-09-17T09:29:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T09:29:40+00:00</t>
+    <t>2025-09-17T10:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T10:41:45+00:00</t>
+    <t>2025-09-17T12:21:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T12:21:11+00:00</t>
+    <t>2025-09-17T16:26:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:26:28+00:00</t>
+    <t>2025-09-17T16:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:58:51+00:00</t>
+    <t>2025-09-22T08:26:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:26:26+00:00</t>
+    <t>2025-09-22T08:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:28:48+00:00</t>
+    <t>2025-09-22T08:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:30:29+00:00</t>
+    <t>2025-09-22T08:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:34:05+00:00</t>
+    <t>2025-09-22T09:39:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:31+00:00</t>
+    <t>2025-09-22T09:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:40+00:00</t>
+    <t>2025-09-22T11:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T11:46:58+00:00</t>
+    <t>2025-09-22T13:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T13:11:45+00:00</t>
+    <t>2025-09-22T14:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T14:03:07+00:00</t>
+    <t>2025-09-22T15:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T15:14:25+00:00</t>
+    <t>2025-09-22T16:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:06:01+00:00</t>
+    <t>2025-09-22T16:51:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:51:16+00:00</t>
+    <t>2025-09-22T17:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:06:55+00:00</t>
+    <t>2025-09-22T17:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:32:58+00:00</t>
+    <t>2025-09-22T17:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:48:18+00:00</t>
+    <t>2025-09-22T18:03:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T18:03:45+00:00</t>
+    <t>2025-09-23T08:18:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:18:09+00:00</t>
+    <t>2025-09-23T08:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:32:43+00:00</t>
+    <t>2025-09-23T08:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:41:48+00:00</t>
+    <t>2025-09-23T08:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:42:22+00:00</t>
+    <t>2025-09-23T08:51:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:51:27+00:00</t>
+    <t>2025-09-23T08:52:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:52:02+00:00</t>
+    <t>2025-09-23T10:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:06:45+00:00</t>
+    <t>2025-09-23T10:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:12+00:00</t>
+    <t>2025-09-23T10:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:52+00:00</t>
+    <t>2025-09-23T10:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:20:32+00:00</t>
+    <t>2025-09-23T10:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:26:15+00:00</t>
+    <t>2025-09-23T10:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:43:17+00:00</t>
+    <t>2025-09-23T11:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:03:07+00:00</t>
+    <t>2025-09-23T11:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:44:28+00:00</t>
+    <t>2025-09-23T12:00:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:00:42+00:00</t>
+    <t>2025-09-23T12:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:55:27+00:00</t>
+    <t>2025-09-23T13:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:35:37+00:00</t>
+    <t>2025-09-23T14:01:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:01:22+00:00</t>
+    <t>2025-09-23T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:15:20+00:00</t>
+    <t>2025-09-23T14:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:32:14+00:00</t>
+    <t>2025-09-23T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:14:11+00:00</t>
+    <t>2025-09-23T16:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:36:06+00:00</t>
+    <t>2025-09-23T17:01:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T17:01:11+00:00</t>
+    <t>2025-09-24T09:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T09:25:22+00:00</t>
+    <t>2025-09-24T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:35:41+00:00</t>
+    <t>2025-09-24T10:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:48:34+00:00</t>
+    <t>2025-09-24T11:09:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T11:09:16+00:00</t>
+    <t>2025-09-24T16:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:01:08+00:00</t>
+    <t>2025-09-24T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:38:52+00:00</t>
+    <t>2025-09-25T09:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:51:46+00:00</t>
+    <t>2025-09-25T09:59:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:59:12+00:00</t>
+    <t>2025-09-25T10:18:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:18:49+00:00</t>
+    <t>2025-09-25T10:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:34:09+00:00</t>
+    <t>2025-09-25T11:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T11:37:39+00:00</t>
+    <t>2025-09-25T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T13:52:06+00:00</t>
+    <t>2025-09-25T14:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T14:17:34+00:00</t>
+    <t>2025-09-25T15:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T15:24:58+00:00</t>
+    <t>2025-09-26T07:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:24:51+00:00</t>
+    <t>2025-09-26T07:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:49:53+00:00</t>
+    <t>2025-09-26T08:03:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T08:03:06+00:00</t>
+    <t>2025-09-29T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T10:55:47+00:00</t>
+    <t>2025-09-29T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:14:34+00:00</t>
+    <t>2025-09-29T11:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:58:57+00:00</t>
+    <t>2025-09-29T12:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T12:25:49+00:00</t>
+    <t>2025-09-29T16:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T16:14:38+00:00</t>
+    <t>2025-09-30T09:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T09:58:20+00:00</t>
+    <t>2025-10-01T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T11:45:35+00:00</t>
+    <t>2025-10-02T08:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:30:31+00:00</t>
+    <t>2025-10-02T08:31:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:31:49+00:00</t>
+    <t>2025-10-02T08:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:40:06+00:00</t>
+    <t>2025-10-02T08:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:55:17+00:00</t>
+    <t>2025-10-02T09:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T09:37:00+00:00</t>
+    <t>2025-10-02T10:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:13:04+00:00</t>
+    <t>2025-10-02T10:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:17:19+00:00</t>
+    <t>2025-10-02T10:35:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:35:00+00:00</t>
+    <t>2025-10-02T10:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:46:31+00:00</t>
+    <t>2025-10-02T10:50:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:50:34+00:00</t>
+    <t>2025-10-02T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:55:47+00:00</t>
+    <t>2025-10-02T11:00:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:00:11+00:00</t>
+    <t>2025-10-02T11:01:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:01:02+00:00</t>
+    <t>2025-10-02T11:30:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:30:52+00:00</t>
+    <t>2025-10-02T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:45:35+00:00</t>
+    <t>2025-10-02T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:46:56+00:00</t>
+    <t>2025-10-02T12:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:14+00:00</t>
+    <t>2025-10-02T12:55:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:42+00:00</t>
+    <t>2025-10-03T09:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T09:35:04+00:00</t>
+    <t>2025-10-03T10:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T10:22:41+00:00</t>
+    <t>2025-10-03T16:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:25:29+00:00</t>
+    <t>2025-10-03T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:32:49+00:00</t>
+    <t>2025-10-06T07:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T07:31:52+00:00</t>
+    <t>2025-10-07T10:46:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-etiology-cs.xlsx
+++ b/CodeSystem-stroke-etiology-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -54,13 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
-    <t>true</t>
+    <t>false</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T10:46:08+00:00</t>
+    <t>2025-10-07</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,13 +90,16 @@
     <t>Purpose</t>
   </si>
   <si>
+    <t>To provide locally governed codes for classifying ischemic stroke etiology.</t>
+  </si>
+  <si>
     <t>Copyright</t>
   </si>
   <si>
+    <t>© Tecnomod. This CodeSystem is provided for use within this Implementation Guide.</t>
+  </si>
+  <si>
     <t>Case Sensitive</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t>Value Set (all codes)</t>
@@ -409,66 +412,70 @@
       <c r="A13" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -486,58 +493,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
